--- a/ResultsByUHF20210728/DailyProjections_citywide20210728.xlsx
+++ b/ResultsByUHF20210728/DailyProjections_citywide20210728.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18842 (13707, 25751)</t>
+          <t>2525 (1946, 3277)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6782 (5556, 8302)</t>
+          <t>884 (764, 1028)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>253 (169, 357)</t>
+          <t>33 (23, 46)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>205 (123, 305)</t>
+          <t>27 (17, 40)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>48 (30, 67)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>38 (24, 54)</t>
+          <t>4 (3, 6)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>38 (28, 51)</t>
+          <t>5 (4, 6)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>144 (93, 215)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>118 (68, 188)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>22 (14, 33)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -530,62 +530,62 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08/01/21</t>
+          <t>07/26/21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23141 (13396, 37383)</t>
+          <t>2562 (1927, 3402)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8264 (5571, 11831)</t>
+          <t>910 (773, 1076)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>287 (173, 460)</t>
+          <t>34 (23, 48)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>222 (117, 382)</t>
+          <t>28 (17, 41)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62 (38, 91)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>49 (30, 73)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45 (31, 65)</t>
+          <t>5 (4, 7)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>206 (133, 302)</t>
+          <t>18 (12, 28)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>167 (96, 262)</t>
+          <t>15 (8, 24)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>35 (21, 53)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>34 (21, 49)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -607,62 +607,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08/08/21</t>
+          <t>07/27/21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30282 (14100, 57114)</t>
+          <t>2611 (1905, 3548)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10368 (5570, 17522)</t>
+          <t>938 (781, 1128)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>336 (170, 633)</t>
+          <t>35 (24, 49)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>255 (111, 518)</t>
+          <t>29 (17, 42)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>71 (40, 122)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>56 (31, 97)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>51 (30, 85)</t>
+          <t>5 (4, 7)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>258 (162, 398)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>205 (113, 338)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>49 (30, 74)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>45 (28, 68)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -684,62 +684,62 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08/15/21</t>
+          <t>07/28/21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40853 (15558, 87650)</t>
+          <t>2668 (1888, 3710)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13680 (5928, 26785)</t>
+          <t>967 (789, 1184)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>424 (176, 931)</t>
+          <t>36 (24, 51)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>320 (117, 754)</t>
+          <t>29 (18, 44)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>85 (40, 172)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>67 (32, 137)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>59 (28, 118)</t>
+          <t>5 (4, 7)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>305 (172, 532)</t>
+          <t>20 (13, 31)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>234 (113, 442)</t>
+          <t>17 (9, 27)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>61 (36, 98)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>54 (31, 92)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -761,62 +761,62 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08/22/21</t>
+          <t>07/29/21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55652 (17754, 130214)</t>
+          <t>2733 (1872, 3886)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18400 (6573, 40327)</t>
+          <t>998 (797, 1245)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>553 (190, 1391)</t>
+          <t>37 (25, 53)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>414 (128, 1114)</t>
+          <t>30 (18, 45)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>109 (43, 256)</t>
+          <t>7 (5, 10)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>86 (34, 204)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>72 (28, 169)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>371 (175, 757)</t>
+          <t>22 (14, 32)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>278 (113, 617)</t>
+          <t>18 (10, 28)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>73 (39, 134)</t>
+          <t>4 (2, 5)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>65 (32, 128)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -838,62 +838,62 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08/29/21</t>
+          <t>07/30/21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73774 (20628, 177328)</t>
+          <t>2802 (1866, 4077)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24635 (7523, 57342)</t>
+          <t>1029 (803, 1308)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>732 (213, 2036)</t>
+          <t>38 (25, 55)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>539 (143, 1605)</t>
+          <t>30 (18, 47)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>144 (47, 382)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>114 (37, 303)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>92 (29, 249)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>473 (184, 1113)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>350 (118, 895)</t>
+          <t>19 (10, 30)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>90 (41, 194)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>82 (34, 187)</t>
+          <t>4 (2, 5)</t>
         </is>
       </c>
     </row>
@@ -915,62 +915,62 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09/05/21</t>
+          <t>07/31/21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91830 (23877, 214241)</t>
+          <t>2877 (1858, 4278)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31504 (8675, 73678)</t>
+          <t>1058 (805, 1374)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>948 (241, 2790)</t>
+          <t>38 (25, 57)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>680 (157, 2155)</t>
+          <t>30 (17, 48)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>189 (53, 547)</t>
+          <t>8 (5, 11)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>150 (42, 434)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>119 (31, 362)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>620 (201, 1628)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>451 (129, 1288)</t>
+          <t>20 (11, 32)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>116 (44, 287)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>108 (37, 277)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
     </row>
@@ -992,69 +992,69 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09/12/21</t>
+          <t>08/01/21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>104790 (26823, 228577)</t>
+          <t>2966 (1860, 4511)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37340 (9810, 84115)</t>
+          <t>1086 (803, 1443)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1172 (272, 3498)</t>
+          <t>39 (25, 59)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>811 (169, 2643)</t>
+          <t>31 (17, 49)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>242 (60, 727)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>191 (47, 576)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>153 (35, 501)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>807 (225, 2272)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>576 (143, 1760)</t>
+          <t>21 (12, 33)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>152 (48, 419)</t>
+          <t>4 (3, 6)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>141 (41, 396)</t>
+          <t>4 (2, 6)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1069,69 +1069,69 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>07/25/21</t>
+          <t>08/02/21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>21371 (15821, 28665)</t>
+          <t>3072 (1865, 4780)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7400 (6142, 8918)</t>
+          <t>1114 (799, 1516)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>262 (176, 368)</t>
+          <t>40 (25, 61)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>213 (129, 317)</t>
+          <t>31 (17, 51)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>48 (30, 67)</t>
+          <t>8 (5, 12)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>38 (24, 54)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>38 (28, 50)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>147 (94, 218)</t>
+          <t>27 (17, 40)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>121 (69, 191)</t>
+          <t>22 (12, 35)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>4 (3, 7)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>22 (14, 33)</t>
+          <t>4 (3, 6)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1146,69 +1146,69 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08/01/21</t>
+          <t>08/03/21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26963 (16007, 42563)</t>
+          <t>3176 (1869, 5056)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9392 (6505, 13145)</t>
+          <t>1144 (795, 1594)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>302 (186, 476)</t>
+          <t>40 (25, 63)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>235 (126, 398)</t>
+          <t>31 (17, 53)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>63 (39, 93)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50 (31, 75)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>44 (31, 63)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>212 (137, 311)</t>
+          <t>28 (18, 42)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>173 (99, 272)</t>
+          <t>23 (13, 36)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>35 (21, 53)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>34 (21, 49)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1223,69 +1223,69 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>08/08/21</t>
+          <t>08/04/21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>35862 (17289, 65378)</t>
+          <t>3284 (1876, 5341)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>12135 (6745, 19898)</t>
+          <t>1175 (791, 1679)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>357 (184, 653)</t>
+          <t>41 (25, 66)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>271 (122, 537)</t>
+          <t>32 (16, 54)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>74 (42, 125)</t>
+          <t>9 (5, 13)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>59 (33, 100)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>50 (30, 81)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>270 (171, 415)</t>
+          <t>29 (19, 43)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>215 (120, 355)</t>
+          <t>24 (14, 38)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>50 (30, 75)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>46 (29, 70)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1300,69 +1300,69 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08/15/21</t>
+          <t>08/05/21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>48836 (19534, 99346)</t>
+          <t>3392 (1884, 5657)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16293 (7385, 30446)</t>
+          <t>1209 (789, 1770)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>449 (194, 942)</t>
+          <t>42 (25, 68)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>337 (129, 766)</t>
+          <t>32 (16, 56)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90 (44, 176)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>72 (34, 140)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>57 (28, 109)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>324 (185, 560)</t>
+          <t>31 (20, 45)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>250 (124, 468)</t>
+          <t>25 (14, 39)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>63 (37, 101)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>57 (33, 95)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1377,69 +1377,69 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08/22/21</t>
+          <t>08/06/21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>66133 (22804, 141825)</t>
+          <t>3510 (1889, 5972)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>22119 (8431, 45101)</t>
+          <t>1246 (786, 1869)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>583 (213, 1369)</t>
+          <t>42 (24, 71)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>432 (142, 1097)</t>
+          <t>32 (16, 59)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>116 (47, 256)</t>
+          <t>9 (6, 14)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>92 (37, 205)</t>
+          <t>7 (4, 11)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>68 (27, 151)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>397 (192, 790)</t>
+          <t>32 (20, 47)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>298 (124, 650)</t>
+          <t>26 (15, 41)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>77 (41, 139)</t>
+          <t>6 (3, 8)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>70 (35, 132)</t>
+          <t>5 (3, 8)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1454,62 +1454,62 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08/29/21</t>
+          <t>08/07/21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84089 (26740, 179414)</t>
+          <t>3634 (1894, 6315)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>29101 (9851, 60952)</t>
+          <t>1286 (786, 1974)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>754 (241, 1911)</t>
+          <t>43 (24, 74)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>545 (157, 1510)</t>
+          <t>33 (16, 61)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>152 (53, 370)</t>
+          <t>9 (6, 15)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>120 (42, 295)</t>
+          <t>7 (4, 12)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>84 (28, 215)</t>
+          <t>7 (4, 10)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>506 (205, 1134)</t>
+          <t>33 (21, 49)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>373 (132, 920)</t>
+          <t>27 (15, 42)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>96 (44, 198)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>88 (37, 190)</t>
+          <t>6 (3, 8)</t>
         </is>
       </c>
     </row>
@@ -1531,62 +1531,62 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09/05/21</t>
+          <t>07/25/21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95682 (30266, 200805)</t>
+          <t>2836 (2226, 3612)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>34843 (11334, 72814)</t>
+          <t>941 (817, 1083)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>925 (272, 2477)</t>
+          <t>34 (23, 47)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>648 (168, 1920)</t>
+          <t>28 (17, 41)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>194 (60, 505)</t>
+          <t>6 (4, 8)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>153 (47, 402)</t>
+          <t>4 (3, 6)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>105 (30, 300)</t>
+          <t>5 (4, 6)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>652 (228, 1584)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>471 (146, 1259)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>124 (49, 286)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>115 (41, 273)</t>
+          <t>3 (2, 4)</t>
         </is>
       </c>
     </row>
@@ -1608,62 +1608,986 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09/12/21</t>
+          <t>07/26/21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>98657 (31682, 206102)</t>
+          <t>2883 (2208, 3757)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>37574 (12278, 78658)</t>
+          <t>978 (838, 1142)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1064 (294, 2985)</t>
+          <t>35 (24, 49)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>728 (169, 2270)</t>
+          <t>29 (18, 42)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>233 (67, 640)</t>
+          <t>6 (4, 9)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>185 (53, 508)</t>
+          <t>5 (3, 7)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>130 (32, 403)</t>
+          <t>5 (4, 7)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>810 (256, 2070)</t>
+          <t>19 (12, 28)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>568 (159, 1612)</t>
+          <t>15 (8, 24)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>160 (55, 400)</t>
+          <t>3 (2, 5)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>146 (47, 370)</t>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>07/27/21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2950 (2191, 3928)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1016 (855, 1204)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>36 (24, 51)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>30 (18, 44)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>5 (3, 7)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5 (4, 7)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>20 (12, 29)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>16 (9, 26)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3 (2, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>07/28/21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3027 (2180, 4123)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1055 (873, 1272)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>37 (25, 53)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>31 (18, 45)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>7 (4, 10)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>5 (3, 8)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>5 (4, 7)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>21 (13, 31)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>17 (9, 27)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07/29/21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3112 (2176, 4337)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1096 (890, 1343)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>39 (26, 55)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>31 (19, 47)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>7 (5, 10)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6 (4, 8)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>6 (4, 7)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>22 (14, 33)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>18 (10, 29)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>4 (2, 5)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>3 (2, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07/30/21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3203 (2176, 4563)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1138 (905, 1420)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>39 (26, 57)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>32 (19, 48)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>8 (5, 11)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6 (4, 8)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>23 (15, 35)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19 (11, 31)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4 (2, 6)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>4 (2, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07/31/21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3302 (2178, 4807)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1178 (915, 1499)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>40 (26, 59)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>32 (19, 50)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>8 (5, 11)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6 (4, 8)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>25 (16, 37)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>20 (11, 32)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>4 (2, 6)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>4 (2, 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>08/01/21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3421 (2187, 5086)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1215 (920, 1581)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>41 (26, 61)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>32 (18, 51)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>8 (5, 12)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>6 (4, 8)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>26 (17, 39)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>21 (12, 34)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>4 (3, 6)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>4 (2, 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>08/02/21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3549 (2204, 5401)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1254 (922, 1669)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>41 (26, 63)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>33 (18, 53)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>8 (5, 12)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7 (4, 10)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>27 (18, 41)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>22 (13, 36)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>4 (3, 7)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4 (3, 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>08/03/21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3688 (2226, 5726)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1294 (923, 1763)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>42 (26, 65)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>33 (18, 55)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>9 (6, 13)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>7 (4, 10)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>29 (18, 43)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>24 (13, 37)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>5 (3, 7)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4 (3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>08/04/21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3826 (2242, 6078)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1336 (924, 1865)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>43 (26, 68)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>33 (18, 57)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>9 (6, 13)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>7 (4, 11)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>30 (19, 45)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>25 (14, 39)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>5 (3, 8)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>5 (3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>08/05/21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3976 (2261, 6444)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1381 (927, 1974)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>44 (26, 71)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>34 (18, 59)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>9 (6, 14)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>7 (4, 11)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>32 (20, 47)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>26 (15, 41)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>5 (3, 8)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>5 (3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08/06/21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4126 (2282, 6835)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1429 (929, 2092)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>45 (26, 74)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>34 (17, 61)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>9 (6, 14)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>7 (5, 12)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>7 (4, 10)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>33 (21, 49)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>27 (15, 42)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>6 (3, 8)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>5 (3, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>08/07/21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4288 (2302, 7242)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1481 (933, 2218)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>46 (26, 77)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>35 (17, 64)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10 (6, 15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>8 (5, 12)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>7 (4, 10)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>34 (22, 51)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>28 (16, 44)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6 (4, 9)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>6 (3, 8)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +2598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>342 (215, 522)</t>
+          <t>255 (162, 384)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>275 (150, 451)</t>
+          <t>207 (113, 333)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>63 (37, 98)</t>
+          <t>44 (26, 69)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>42 (25, 63)</t>
+          <t>29 (18, 44)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>298 (188, 450)</t>
+          <t>255 (162, 384)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>239 (130, 390)</t>
+          <t>207 (113, 333)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>54 (32, 83)</t>
+          <t>44 (26, 69)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>35 (22, 53)</t>
+          <t>29 (18, 44)</t>
         </is>
       </c>
     </row>
@@ -1822,47 +2746,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08/01/21</t>
+          <t>07/26/21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>423 (250, 691)</t>
+          <t>270 (171, 405)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>330 (164, 587)</t>
+          <t>218 (120, 352)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>87 (50, 139)</t>
+          <t>47 (28, 73)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>56 (33, 88)</t>
+          <t>31 (19, 47)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>380 (226, 610)</t>
+          <t>270 (171, 405)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>296 (144, 521)</t>
+          <t>218 (120, 352)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>76 (45, 121)</t>
+          <t>47 (28, 73)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>50 (30, 77)</t>
+          <t>31 (19, 47)</t>
         </is>
       </c>
     </row>
@@ -1884,47 +2808,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08/08/21</t>
+          <t>07/27/21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>494 (259, 909)</t>
+          <t>284 (180, 428)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>372 (157, 755)</t>
+          <t>229 (125, 371)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>108 (59, 187)</t>
+          <t>50 (30, 77)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>67 (38, 117)</t>
+          <t>33 (20, 50)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>443 (232, 797)</t>
+          <t>284 (180, 428)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>332 (136, 665)</t>
+          <t>229 (125, 371)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>97 (53, 164)</t>
+          <t>50 (30, 77)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>61 (34, 103)</t>
+          <t>33 (20, 50)</t>
         </is>
       </c>
     </row>
@@ -1946,47 +2870,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08/15/21</t>
+          <t>07/28/21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>585 (257, 1259)</t>
+          <t>298 (188, 450)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>428 (146, 1022)</t>
+          <t>240 (130, 390)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>130 (63, 254)</t>
+          <t>53 (31, 82)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>79 (39, 159)</t>
+          <t>35 (21, 53)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>523 (232, 1084)</t>
+          <t>298 (188, 450)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>382 (127, 886)</t>
+          <t>240 (130, 390)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>116 (57, 221)</t>
+          <t>53 (31, 82)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>71 (35, 138)</t>
+          <t>35 (21, 53)</t>
         </is>
       </c>
     </row>
@@ -2008,47 +2932,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08/22/21</t>
+          <t>07/29/21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>724 (263, 1814)</t>
+          <t>312 (196, 473)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>515 (144, 1443)</t>
+          <t>250 (135, 409)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>158 (66, 362)</t>
+          <t>56 (33, 87)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>97 (39, 229)</t>
+          <t>37 (23, 56)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>646 (239, 1552)</t>
+          <t>312 (196, 473)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>460 (128, 1241)</t>
+          <t>250 (135, 409)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>141 (60, 310)</t>
+          <t>56 (33, 87)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>86 (36, 196)</t>
+          <t>37 (23, 56)</t>
         </is>
       </c>
     </row>
@@ -2070,47 +2994,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08/29/21</t>
+          <t>07/30/21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>923 (279, 2620)</t>
+          <t>325 (204, 495)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>635 (149, 2046)</t>
+          <t>260 (139, 428)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>201 (69, 526)</t>
+          <t>60 (35, 92)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>124 (41, 337)</t>
+          <t>39 (24, 59)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>824 (257, 2250)</t>
+          <t>325 (204, 495)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>569 (133, 1767)</t>
+          <t>260 (139, 428)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>179 (63, 450)</t>
+          <t>60 (35, 92)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>110 (38, 287)</t>
+          <t>39 (24, 59)</t>
         </is>
       </c>
     </row>
@@ -2132,47 +3056,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09/05/21</t>
+          <t>07/31/21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1174 (306, 3632)</t>
+          <t>337 (210, 518)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>781 (153, 2785)</t>
+          <t>269 (141, 447)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>259 (75, 752)</t>
+          <t>63 (37, 98)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>161 (45, 482)</t>
+          <t>41 (25, 63)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1056 (282, 3175)</t>
+          <t>337 (210, 518)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>703 (137, 2442)</t>
+          <t>269 (141, 447)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>232 (70, 650)</t>
+          <t>63 (37, 98)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>144 (41, 417)</t>
+          <t>41 (25, 63)</t>
         </is>
       </c>
     </row>
@@ -2194,54 +3118,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09/12/21</t>
+          <t>08/01/21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1456 (337, 4725)</t>
+          <t>349 (215, 541)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>932 (154, 3554)</t>
+          <t>277 (143, 466)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>328 (83, 1016)</t>
+          <t>66 (39, 103)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>205 (50, 651)</t>
+          <t>43 (26, 66)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1320 (313, 4217)</t>
+          <t>349 (215, 541)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>840 (138, 3164)</t>
+          <t>277 (143, 466)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>297 (77, 898)</t>
+          <t>66 (39, 103)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>185 (46, 576)</t>
+          <t>43 (26, 66)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2256,54 +3180,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>07/25/21</t>
+          <t>08/02/21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>351 (221, 535)</t>
+          <t>360 (220, 564)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>283 (155, 463)</t>
+          <t>284 (145, 484)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>64 (38, 98)</t>
+          <t>70 (41, 109)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>42 (26, 63)</t>
+          <t>46 (28, 70)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>304 (193, 460)</t>
+          <t>360 (220, 564)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>245 (135, 399)</t>
+          <t>284 (145, 484)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>54 (32, 83)</t>
+          <t>70 (41, 109)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>35 (22, 53)</t>
+          <t>46 (28, 70)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2318,54 +3242,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08/01/21</t>
+          <t>08/03/21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>438 (259, 712)</t>
+          <t>370 (223, 587)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>344 (172, 605)</t>
+          <t>291 (145, 503)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>89 (51, 141)</t>
+          <t>73 (43, 115)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>57 (34, 90)</t>
+          <t>48 (29, 73)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>394 (234, 628)</t>
+          <t>370 (223, 587)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>309 (153, 537)</t>
+          <t>291 (145, 503)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>78 (45, 122)</t>
+          <t>73 (43, 115)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>50 (30, 78)</t>
+          <t>48 (29, 73)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2380,54 +3304,54 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>08/08/21</t>
+          <t>08/04/21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>516 (271, 935)</t>
+          <t>380 (226, 610)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>390 (165, 776)</t>
+          <t>297 (145, 521)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>112 (61, 191)</t>
+          <t>77 (45, 120)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>70 (39, 120)</t>
+          <t>50 (30, 77)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>462 (243, 821)</t>
+          <t>380 (226, 610)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>349 (144, 684)</t>
+          <t>297 (145, 521)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>100 (55, 168)</t>
+          <t>77 (45, 120)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>63 (36, 106)</t>
+          <t>50 (30, 77)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2442,54 +3366,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08/15/21</t>
+          <t>08/05/21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>608 (271, 1272)</t>
+          <t>390 (229, 633)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>444 (152, 1030)</t>
+          <t>302 (144, 539)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>136 (67, 260)</t>
+          <t>80 (46, 126)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>83 (41, 163)</t>
+          <t>52 (31, 80)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>544 (244, 1103)</t>
+          <t>390 (229, 633)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>397 (134, 899)</t>
+          <t>302 (144, 539)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>121 (61, 227)</t>
+          <t>80 (46, 126)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>74 (37, 142)</t>
+          <t>52 (31, 80)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2504,54 +3428,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08/22/21</t>
+          <t>08/06/21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>743 (278, 1781)</t>
+          <t>398 (230, 657)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>525 (148, 1409)</t>
+          <t>307 (143, 558)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>166 (71, 366)</t>
+          <t>83 (48, 132)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>102 (42, 229)</t>
+          <t>53 (32, 84)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>665 (253, 1540)</t>
+          <t>398 (230, 657)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>471 (131, 1226)</t>
+          <t>307 (143, 558)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>149 (64, 315)</t>
+          <t>83 (48, 132)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>91 (39, 197)</t>
+          <t>53 (32, 84)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2566,47 +3490,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08/29/21</t>
+          <t>08/07/21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>925 (297, 2461)</t>
+          <t>407 (231, 682)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>631 (148, 1909)</t>
+          <t>312 (142, 577)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>210 (76, 518)</t>
+          <t>86 (49, 139)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>129 (45, 325)</t>
+          <t>55 (32, 87)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>833 (272, 2148)</t>
+          <t>407 (231, 682)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>569 (132, 1673)</t>
+          <t>312 (142, 577)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>188 (70, 448)</t>
+          <t>86 (49, 139)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>116 (41, 281)</t>
+          <t>55 (32, 87)</t>
         </is>
       </c>
     </row>
@@ -2628,47 +3552,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09/05/21</t>
+          <t>07/25/21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1129 (320, 3254)</t>
+          <t>260 (165, 390)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>739 (146, 2481)</t>
+          <t>210 (117, 339)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>265 (83, 712)</t>
+          <t>44 (26, 69)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>163 (50, 445)</t>
+          <t>29 (18, 45)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1028 (297, 2887)</t>
+          <t>260 (165, 390)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>671 (130, 2205)</t>
+          <t>210 (117, 339)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>239 (77, 625)</t>
+          <t>44 (26, 69)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>147 (46, 390)</t>
+          <t>29 (18, 45)</t>
         </is>
       </c>
     </row>
@@ -2690,47 +3614,791 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09/12/21</t>
+          <t>07/26/21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1328 (341, 4082)</t>
+          <t>275 (175, 413)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>838 (139, 3064)</t>
+          <t>222 (124, 359)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>322 (91, 926)</t>
+          <t>47 (28, 73)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>197 (54, 576)</t>
+          <t>31 (19, 47)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1216 (318, 3667)</t>
+          <t>275 (175, 413)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>761 (122, 2754)</t>
+          <t>222 (124, 359)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>295 (85, 827)</t>
+          <t>47 (28, 73)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>180 (51, 514)</t>
+          <t>31 (19, 47)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>07/27/21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>290 (184, 435)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>234 (130, 379)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>50 (30, 78)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>33 (20, 50)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>290 (184, 435)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>234 (130, 379)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>50 (30, 78)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33 (20, 50)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>07/28/21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>305 (193, 459)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>246 (135, 399)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>53 (32, 82)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>35 (21, 53)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>305 (193, 459)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>246 (135, 399)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>53 (32, 82)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>35 (21, 53)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07/29/21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>319 (202, 483)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>257 (140, 419)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>56 (34, 87)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>37 (23, 56)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>319 (202, 483)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>257 (140, 419)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>56 (34, 87)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>37 (23, 56)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07/30/21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>334 (209, 507)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>268 (145, 440)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>60 (36, 92)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>39 (24, 60)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>334 (209, 507)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>268 (145, 440)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>60 (36, 92)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>39 (24, 60)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07/31/21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>347 (216, 531)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>278 (148, 459)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>63 (38, 98)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>41 (25, 63)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>347 (216, 531)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>278 (148, 459)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>63 (38, 98)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>41 (25, 63)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>08/01/21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>360 (222, 556)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>287 (151, 479)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>67 (40, 103)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>44 (27, 67)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>360 (222, 556)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>287 (151, 479)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>67 (40, 103)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>44 (27, 67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>08/02/21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>372 (227, 580)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>295 (152, 499)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>70 (42, 109)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>46 (28, 70)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>372 (227, 580)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>295 (152, 499)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>70 (42, 109)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>46 (28, 70)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>08/03/21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>383 (231, 604)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>303 (153, 518)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>74 (44, 115)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>48 (29, 74)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>383 (231, 604)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>303 (153, 518)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>74 (44, 115)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>48 (29, 74)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>08/04/21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>394 (235, 628)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>309 (153, 537)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>78 (45, 121)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>50 (30, 78)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>394 (235, 628)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>309 (153, 537)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>78 (45, 121)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>50 (30, 78)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>08/05/21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>404 (237, 652)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>315 (152, 556)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>81 (47, 128)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>52 (31, 82)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>404 (237, 652)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>315 (152, 556)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>81 (47, 128)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>52 (31, 82)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08/06/21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>414 (239, 677)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>321 (151, 575)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>85 (49, 134)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>54 (32, 86)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>414 (239, 677)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>321 (151, 575)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>85 (49, 134)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>54 (32, 86)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>08/07/21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>423 (241, 703)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>326 (150, 595)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>88 (51, 140)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>56 (33, 89)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>423 (241, 703)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>326 (150, 595)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>88 (51, 140)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>56 (33, 89)</t>
         </is>
       </c>
     </row>
